--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.692124490577501</v>
+        <v>5.6921244744335571</v>
       </c>
       <c r="C2">
-        <v>10.567667998141529</v>
+        <v>10.567667994735141</v>
       </c>
       <c r="D2">
-        <v>3.4192260154858003</v>
+        <v>3.4192259953337905</v>
       </c>
       <c r="E2">
-        <v>14.682451262407351</v>
+        <v>14.682451244591169</v>
       </c>
       <c r="F2">
-        <v>-6.4609271772808441</v>
+        <v>-6.4609271802542851</v>
       </c>
       <c r="G2">
-        <v>9.2573138134217512</v>
+        <v>9.2573137902430886</v>
       </c>
       <c r="H2">
-        <v>9.6322823471965293</v>
+        <v>9.6322823351949225</v>
       </c>
       <c r="I2">
-        <v>6.6849010885590143</v>
+        <v>6.6849010808137228</v>
       </c>
       <c r="J2">
-        <v>10.371185116635537</v>
+        <v>10.371185095208153</v>
       </c>
       <c r="K2">
-        <v>15.192658456807994</v>
+        <v>15.192658443602877</v>
       </c>
       <c r="L2">
-        <v>11.387896747318829</v>
+        <v>11.387896725913874</v>
       </c>
       <c r="M2">
-        <v>7.1503454097571986</v>
+        <v>7.1503453964686186</v>
       </c>
       <c r="N2">
-        <v>13.996241487647673</v>
+        <v>13.996241458539943</v>
       </c>
       <c r="O2">
-        <v>5.240526698903758</v>
+        <v>5.2405266834169195</v>
       </c>
       <c r="P2">
-        <v>8.246307369038739</v>
+        <v>8.2463073511748224</v>
       </c>
       <c r="Q2">
-        <v>12.542290950522469</v>
+        <v>12.542290936699136</v>
       </c>
       <c r="R2">
-        <v>7.0105304567533819</v>
+        <v>7.0105304482508348</v>
       </c>
       <c r="S2">
-        <v>6.5770380149168597</v>
+        <v>6.5770379987122816</v>
       </c>
       <c r="T2">
-        <v>12.38479576550826</v>
+        <v>12.384795750912621</v>
       </c>
       <c r="U2">
-        <v>13.518033682375929</v>
+        <v>13.518033671367993</v>
       </c>
       <c r="V2">
-        <v>11.152615543642673</v>
+        <v>11.152615527633367</v>
       </c>
       <c r="W2">
-        <v>4.0552717401607579</v>
+        <v>4.0552717213328924</v>
       </c>
       <c r="X2">
-        <v>14.350669474878297</v>
+        <v>14.350669465274205</v>
       </c>
       <c r="Y2">
-        <v>13.809896367177085</v>
+        <v>13.809896351559884</v>
       </c>
       <c r="Z2">
-        <v>10.207744798252827</v>
+        <v>10.207744790215676</v>
       </c>
       <c r="AA2">
-        <v>11.790824693217566</v>
+        <v>11.790824655209089</v>
       </c>
       <c r="AB2">
-        <v>12.338776908402824</v>
+        <v>12.338776896766475</v>
       </c>
       <c r="AC2">
-        <v>9.1304739038745595</v>
+        <v>9.1304738959195024</v>
       </c>
       <c r="AD2">
-        <v>13.176365067800866</v>
+        <v>13.176365051905403</v>
       </c>
       <c r="AE2">
-        <v>16.201915808501049</v>
+        <v>16.201915797124819</v>
       </c>
       <c r="AF2">
-        <v>11.512852958531699</v>
+        <v>11.512852945491424</v>
       </c>
       <c r="AG2">
-        <v>10.30815061131832</v>
+        <v>10.30815059955833</v>
       </c>
       <c r="AH2">
-        <v>7.98009133253285</v>
+        <v>7.9800913212822859</v>
       </c>
       <c r="AI2">
-        <v>2.1955426896178563</v>
+        <v>2.195542674279551</v>
       </c>
       <c r="AJ2">
-        <v>8.378749598541317</v>
+        <v>8.3787495822125173</v>
       </c>
       <c r="AK2">
-        <v>10.851494281475038</v>
+        <v>10.85149425985164</v>
       </c>
       <c r="AL2">
-        <v>14.688250539694639</v>
+        <v>14.688250522225625</v>
       </c>
       <c r="AM2">
-        <v>11.021554508916955</v>
+        <v>11.021554485603549</v>
       </c>
       <c r="AN2">
-        <v>11.218885984357053</v>
+        <v>11.218885965359188</v>
       </c>
       <c r="AO2">
-        <v>15.893547661667498</v>
+        <v>15.893547639986586</v>
       </c>
       <c r="AP2">
-        <v>8.6406661773636984</v>
+        <v>8.6406661657857651</v>
       </c>
       <c r="AQ2">
-        <v>10.457440184724598</v>
+        <v>10.457440156659771</v>
       </c>
       <c r="AR2">
-        <v>10.223128047069022</v>
+        <v>10.223128042793366</v>
       </c>
       <c r="AS2">
-        <v>13.296367768785558</v>
+        <v>13.296367747944259</v>
       </c>
       <c r="AT2">
-        <v>13.570216119728734</v>
+        <v>13.570216104429663</v>
       </c>
       <c r="AU2">
-        <v>9.1786869349819256</v>
+        <v>9.1786869258872859</v>
       </c>
       <c r="AV2">
-        <v>8.97811255608684</v>
+        <v>8.9781125261350017</v>
       </c>
       <c r="AW2">
-        <v>12.007760392725169</v>
+        <v>12.007760370371816</v>
       </c>
       <c r="AX2">
-        <v>17.821750448602028</v>
+        <v>17.821750416526566</v>
       </c>
       <c r="AY2">
-        <v>13.019043838411012</v>
+        <v>13.019043820573792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.5927542921439057</v>
+        <v>6.5927542795580854</v>
       </c>
       <c r="C3">
-        <v>10.002947990072322</v>
+        <v>10.002947983237066</v>
       </c>
       <c r="D3">
-        <v>14.416432294110093</v>
+        <v>14.416432282059652</v>
       </c>
       <c r="E3">
-        <v>19.244456818182133</v>
+        <v>19.244456809201502</v>
       </c>
       <c r="F3">
-        <v>2.3665411925677815</v>
+        <v>2.366541181335597</v>
       </c>
       <c r="G3">
-        <v>11.090353171637094</v>
+        <v>11.090353165480957</v>
       </c>
       <c r="H3">
-        <v>10.232650465716485</v>
+        <v>10.232650445763875</v>
       </c>
       <c r="I3">
-        <v>8.320032781283933</v>
+        <v>8.3200327724721674</v>
       </c>
       <c r="J3">
-        <v>11.812005156426146</v>
+        <v>11.812005144950852</v>
       </c>
       <c r="K3">
-        <v>0.25312661386488799</v>
+        <v>0.25312660238680801</v>
       </c>
       <c r="L3">
-        <v>12.346685249483054</v>
+        <v>12.346685237341804</v>
       </c>
       <c r="M3">
-        <v>9.3507418509111719</v>
+        <v>9.3507083061536012</v>
       </c>
       <c r="N3">
-        <v>10.437729660407506</v>
+        <v>10.437729642190337</v>
       </c>
       <c r="O3">
-        <v>4.6333683740523721</v>
+        <v>4.6333683627870021</v>
       </c>
       <c r="P3">
-        <v>27.492415434404531</v>
+        <v>27.492415417513417</v>
       </c>
       <c r="Q3">
-        <v>7.5527058535567893</v>
+        <v>7.552705842783249</v>
       </c>
       <c r="R3">
-        <v>7.3494988524296101</v>
+        <v>7.3494988398059276</v>
       </c>
       <c r="S3">
-        <v>4.9189300623931986</v>
+        <v>4.9189300554693913</v>
       </c>
       <c r="T3">
-        <v>6.6482370774229738</v>
+        <v>6.648237065852304</v>
       </c>
       <c r="U3">
-        <v>12.294363673363936</v>
+        <v>12.294363666207305</v>
       </c>
       <c r="V3">
-        <v>12.452738411731454</v>
+        <v>12.452738404603419</v>
       </c>
       <c r="W3">
-        <v>7.8118069916590205</v>
+        <v>7.8118069635981335</v>
       </c>
       <c r="X3">
-        <v>4.5991748480218586</v>
+        <v>4.5991748284367802</v>
       </c>
       <c r="Y3">
-        <v>5.8357926064465513</v>
+        <v>5.8357925943413562</v>
       </c>
       <c r="Z3">
-        <v>10.386296484460237</v>
+        <v>10.386296474892138</v>
       </c>
       <c r="AA3">
-        <v>12.788602174745231</v>
+        <v>12.788602158866736</v>
       </c>
       <c r="AB3">
-        <v>10.626181940609108</v>
+        <v>10.626181923281065</v>
       </c>
       <c r="AC3">
-        <v>15.872809466650001</v>
+        <v>15.872809442360989</v>
       </c>
       <c r="AD3">
-        <v>20.487975383186459</v>
+        <v>20.487975351568895</v>
       </c>
       <c r="AE3">
-        <v>14.386335079650554</v>
+        <v>14.386335080320503</v>
       </c>
       <c r="AF3">
-        <v>13.316648762822489</v>
+        <v>13.316648742292061</v>
       </c>
       <c r="AG3">
-        <v>9.8086424267088574</v>
+        <v>9.8086424038569202</v>
       </c>
       <c r="AH3">
-        <v>10.169673746733261</v>
+        <v>10.169673737506765</v>
       </c>
       <c r="AI3">
-        <v>12.626086483326251</v>
+        <v>12.626086463704391</v>
       </c>
       <c r="AJ3">
-        <v>15.801116827790876</v>
+        <v>15.801116804004197</v>
       </c>
       <c r="AK3">
-        <v>12.334542717848693</v>
+        <v>12.334542710589927</v>
       </c>
       <c r="AL3">
-        <v>12.90226866874028</v>
+        <v>12.902268653660817</v>
       </c>
       <c r="AM3">
-        <v>9.3468708451691001</v>
+        <v>9.3468708169741141</v>
       </c>
       <c r="AN3">
-        <v>7.020347936935968</v>
+        <v>7.0203479162315592</v>
       </c>
       <c r="AO3">
-        <v>7.5789270696085458</v>
+        <v>7.5789270348513131</v>
       </c>
       <c r="AP3">
-        <v>11.916180153160244</v>
+        <v>11.916180135450004</v>
       </c>
       <c r="AQ3">
-        <v>11.317359728216688</v>
+        <v>11.317359711672395</v>
       </c>
       <c r="AR3">
-        <v>12.272000080367809</v>
+        <v>12.272000068819601</v>
       </c>
       <c r="AS3">
-        <v>10.412917692356768</v>
+        <v>10.412917678090917</v>
       </c>
       <c r="AT3">
-        <v>10.523951198245861</v>
+        <v>10.523951172990046</v>
       </c>
       <c r="AU3">
-        <v>13.550025865529234</v>
+        <v>13.550025840709107</v>
       </c>
       <c r="AV3">
-        <v>12.398145852485632</v>
+        <v>12.398145836270471</v>
       </c>
       <c r="AW3">
-        <v>14.322894963883085</v>
+        <v>14.322894933966413</v>
       </c>
       <c r="AX3">
-        <v>29.700769129229553</v>
+        <v>29.700769106846053</v>
       </c>
       <c r="AY3">
-        <v>19.802915854741059</v>
+        <v>19.802915841514956</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.6921244744335571</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.567667994735141</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.4192259953337905</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14.682451244591169</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.4609271802542851</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.2573137902430886</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.6322823351949225</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.6849010808137228</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.371185095208153</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.192658443602877</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.387896725913874</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.1503453964686186</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.996241458539943</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.2405266834169195</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8.2463073511748224</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.542290936699136</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.0105304482508348</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.5770379987122816</v>
+        <v>6.5770264844166855</v>
       </c>
       <c r="T2">
-        <v>12.384795750912621</v>
+        <v>12.384782848715819</v>
       </c>
       <c r="U2">
-        <v>13.518033671367993</v>
+        <v>13.518017447527464</v>
       </c>
       <c r="V2">
-        <v>11.152615527633367</v>
+        <v>11.152602861350594</v>
       </c>
       <c r="W2">
-        <v>4.0552717213328924</v>
+        <v>4.0552585048317873</v>
       </c>
       <c r="X2">
-        <v>14.350669465274205</v>
+        <v>14.350685175669668</v>
       </c>
       <c r="Y2">
-        <v>13.809896351559884</v>
+        <v>13.809913704988656</v>
       </c>
       <c r="Z2">
-        <v>10.207744790215676</v>
+        <v>10.207759507708321</v>
       </c>
       <c r="AA2">
-        <v>11.790824655209089</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12.338776896766475</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.1304738959195024</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>13.176365051905403</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>16.201915797124819</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.512852945491424</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.30815059955833</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.9800913212822859</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.195542674279551</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.3787495822125173</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>10.85149425985164</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.688250522225625</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.021554485603549</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>11.218885965359188</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.893547639986586</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.6406661657857651</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>10.457440156659771</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.223128042793366</v>
+        <v>10.223115914473441</v>
       </c>
       <c r="AS2">
-        <v>13.296367747944259</v>
+        <v>13.29635480928496</v>
       </c>
       <c r="AT2">
         <v>13.570216104429663</v>
       </c>
       <c r="AU2">
-        <v>9.1786869258872859</v>
+        <v>9.1786745740603237</v>
       </c>
       <c r="AV2">
         <v>8.9781125261350017</v>
       </c>
       <c r="AW2">
-        <v>12.007760370371816</v>
+        <v>12.007775305707137</v>
       </c>
       <c r="AX2">
-        <v>17.821750416526566</v>
+        <v>17.821769277990583</v>
       </c>
       <c r="AY2">
         <v>13.019043820573792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.5927542795580854</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.002947983237066</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14.416432282059652</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.244456809201502</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.366541181335597</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.090353165480957</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.232650445763875</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.3200327724721674</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.812005144950852</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.25312660238680801</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.346685237341804</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.3507083061536012</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.437729642190337</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.6333683627870021</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.492415417513417</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.552705842783249</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.3494988398059276</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>4.9189300554693913</v>
       </c>
       <c r="T3">
-        <v>6.648237065852304</v>
+        <v>6.6482244803329609</v>
       </c>
       <c r="U3">
-        <v>12.294363666207305</v>
+        <v>12.294347611744698</v>
       </c>
       <c r="V3">
-        <v>12.452738404603419</v>
+        <v>12.452724604666997</v>
       </c>
       <c r="W3">
-        <v>7.8118069635981335</v>
+        <v>7.8117938200713626</v>
       </c>
       <c r="X3">
-        <v>4.5991748284367802</v>
+        <v>4.5991612634893499</v>
       </c>
       <c r="Y3">
-        <v>5.8357925943413562</v>
+        <v>5.8358074360591354</v>
       </c>
       <c r="Z3">
-        <v>10.386296474892138</v>
+        <v>10.386311170622106</v>
       </c>
       <c r="AA3">
-        <v>12.788602158866736</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>10.626181923281065</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.872809442360989</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>20.487975351568895</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.386335080320503</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.316648742292061</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.8086424038569202</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>10.169673737506765</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>12.626086463704391</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.801116804004197</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>12.334542710589927</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>12.902268653660817</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.3468708169741141</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.0203479162315592</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>7.5789270348513131</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.916180135450004</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.317359711672395</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>12.272000068819601</v>
+        <v>12.271987765640297</v>
       </c>
       <c r="AS3">
         <v>10.412917678090917</v>
       </c>
       <c r="AT3">
-        <v>10.523951172990046</v>
+        <v>10.523935845309474</v>
       </c>
       <c r="AU3">
-        <v>13.550025840709107</v>
+        <v>13.550011887823466</v>
       </c>
       <c r="AV3">
-        <v>12.398145836270471</v>
+        <v>12.398159895144166</v>
       </c>
       <c r="AW3">
-        <v>14.322894933966413</v>
+        <v>14.32287938946318</v>
       </c>
       <c r="AX3">
-        <v>29.700769106846053</v>
+        <v>29.700789212430294</v>
       </c>
       <c r="AY3">
         <v>19.802915841514956</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6921130053699853</v>
+        <v>5.2405407220496185</v>
       </c>
       <c r="C2">
-        <v>11.219863809703545</v>
+        <v>7.0105172500430539</v>
       </c>
       <c r="D2">
-        <v>3.4192260154858003</v>
+        <v>11.218901824499449</v>
       </c>
       <c r="E2">
-        <v>18.598560291578121</v>
+        <v>10.457440156659771</v>
       </c>
       <c r="F2">
         <v>-6.4609394278888539</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.5927542921439057</v>
+        <v>4.6333683627870021</v>
       </c>
       <c r="C3">
-        <v>12.677314127469073</v>
+        <v>7.34948576015063</v>
       </c>
       <c r="D3">
-        <v>14.416415666782791</v>
+        <v>7.02036264270017</v>
       </c>
       <c r="E3">
-        <v>19.244438281843578</v>
+        <v>11.396259373873145</v>
       </c>
       <c r="F3">
         <v>2.366554916914287</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6921130053699853</v>
+        <v>-0.51334858624352486</v>
       </c>
       <c r="C2">
-        <v>11.219863809703545</v>
+        <v>5.2405407220496185</v>
       </c>
       <c r="D2">
-        <v>3.4192260154858003</v>
+        <v>7.1037637969911192</v>
       </c>
       <c r="E2">
-        <v>18.598560291578121</v>
+        <v>11.218901824499449</v>
       </c>
       <c r="F2">
         <v>-6.4609394278888539</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.5927542921439057</v>
+        <v>-6.5387522358148971</v>
       </c>
       <c r="C3">
-        <v>12.677314127469073</v>
+        <v>4.6333683627870021</v>
       </c>
       <c r="D3">
-        <v>14.416415666782791</v>
+        <v>14.71577472434616</v>
       </c>
       <c r="E3">
-        <v>19.244438281843578</v>
+        <v>7.02036264270017</v>
       </c>
       <c r="F3">
         <v>2.366554916914287</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.6921129892260431</v>
+      </c>
+      <c r="C2">
+        <v>11.219863806277063</v>
+      </c>
+      <c r="D2">
+        <v>3.4192259953337905</v>
+      </c>
+      <c r="E2">
+        <v>18.598560273153559</v>
+      </c>
+      <c r="F2">
+        <v>-6.4609394308622949</v>
+      </c>
+      <c r="G2">
+        <v>9.2572995359442114</v>
+      </c>
+      <c r="H2">
+        <v>9.6322960954734125</v>
+      </c>
+      <c r="I2">
+        <v>6.6848899099082786</v>
+      </c>
+      <c r="J2">
+        <v>10.371198463041516</v>
+      </c>
+      <c r="K2">
+        <v>15.19267282084572</v>
+      </c>
+      <c r="L2">
+        <v>11.387883477673968</v>
+      </c>
+      <c r="M2">
+        <v>7.15035694902984</v>
+      </c>
+      <c r="N2">
         <v>-0.51334858624352486</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>5.2405407220496185</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>8.2463073511748224</v>
+      </c>
+      <c r="Q2">
+        <v>25.585714580371484</v>
+      </c>
+      <c r="R2">
+        <v>7.0105172500430539</v>
+      </c>
+      <c r="S2">
+        <v>6.5770264844166855</v>
+      </c>
+      <c r="T2">
+        <v>12.384782848715819</v>
+      </c>
+      <c r="U2">
+        <v>13.518017447527464</v>
+      </c>
+      <c r="V2">
+        <v>11.152602861350594</v>
+      </c>
+      <c r="W2">
+        <v>4.0552585048317873</v>
+      </c>
+      <c r="X2">
+        <v>14.350685175669668</v>
+      </c>
+      <c r="Y2">
+        <v>13.809913704988656</v>
+      </c>
+      <c r="Z2">
+        <v>10.207759507708321</v>
+      </c>
+      <c r="AA2">
+        <v>11.790837180669717</v>
+      </c>
+      <c r="AB2">
+        <v>1.3577477682647883</v>
+      </c>
+      <c r="AC2">
+        <v>9.1304889398141711</v>
+      </c>
+      <c r="AD2">
+        <v>9.8239913060459152</v>
+      </c>
+      <c r="AE2">
+        <v>16.201915797124819</v>
+      </c>
+      <c r="AF2">
+        <v>11.512838579638741</v>
+      </c>
+      <c r="AG2">
+        <v>10.30815059955833</v>
+      </c>
+      <c r="AH2">
+        <v>7.980079966510746</v>
+      </c>
+      <c r="AI2">
+        <v>2.195530424646075</v>
+      </c>
+      <c r="AJ2">
+        <v>8.378762686532399</v>
+      </c>
+      <c r="AK2">
+        <v>10.851507233792963</v>
+      </c>
+      <c r="AL2">
+        <v>14.688250522225625</v>
+      </c>
+      <c r="AM2">
         <v>7.1037637969911192</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>11.218901824499449</v>
       </c>
-      <c r="F2">
-        <v>-6.4609394278888539</v>
-      </c>
-      <c r="G2">
-        <v>9.2572995591228704</v>
-      </c>
-      <c r="H2">
-        <v>9.6322961074750193</v>
-      </c>
-      <c r="I2">
-        <v>6.684889917653571</v>
-      </c>
-      <c r="J2">
-        <v>10.371198484468904</v>
-      </c>
-      <c r="K2">
-        <v>15.192672834050839</v>
-      </c>
-      <c r="L2">
-        <v>11.387883499078919</v>
-      </c>
-      <c r="M2">
-        <v>7.1503569623184218</v>
-      </c>
-      <c r="N2">
-        <v>-0.51334856084066449</v>
-      </c>
-      <c r="O2">
-        <v>5.2405407375364605</v>
-      </c>
-      <c r="P2">
-        <v>8.246307369038739</v>
-      </c>
-      <c r="Q2">
-        <v>25.585714595796915</v>
-      </c>
-      <c r="R2">
-        <v>7.0105172585455993</v>
-      </c>
-      <c r="S2">
-        <v>6.5770265006212609</v>
-      </c>
-      <c r="T2">
-        <v>12.384782863311454</v>
-      </c>
-      <c r="U2">
-        <v>13.5180174585354</v>
-      </c>
-      <c r="V2">
-        <v>11.152602877359898</v>
-      </c>
-      <c r="W2">
-        <v>4.0552585236596501</v>
-      </c>
-      <c r="X2">
-        <v>14.350685185273763</v>
-      </c>
-      <c r="Y2">
-        <v>13.809913720605859</v>
-      </c>
-      <c r="Z2">
-        <v>10.207759515745474</v>
-      </c>
-      <c r="AA2">
-        <v>11.790837218678201</v>
-      </c>
-      <c r="AB2">
-        <v>1.3577477787636913</v>
-      </c>
-      <c r="AC2">
-        <v>9.1304889477692281</v>
-      </c>
-      <c r="AD2">
-        <v>9.8239913214705421</v>
-      </c>
-      <c r="AE2">
-        <v>16.201915808501049</v>
-      </c>
-      <c r="AF2">
-        <v>11.512838592679016</v>
-      </c>
-      <c r="AG2">
-        <v>10.30815061131832</v>
-      </c>
-      <c r="AH2">
-        <v>7.9800799777613092</v>
-      </c>
-      <c r="AI2">
-        <v>2.1955304399843785</v>
-      </c>
-      <c r="AJ2">
-        <v>8.3787627028612004</v>
-      </c>
-      <c r="AK2">
-        <v>10.851507255416363</v>
-      </c>
-      <c r="AL2">
-        <v>14.688250539694639</v>
-      </c>
-      <c r="AM2">
-        <v>7.1037638194818289</v>
-      </c>
-      <c r="AN2">
-        <v>11.218901843497317</v>
-      </c>
       <c r="AO2">
-        <v>15.893547661667498</v>
+        <v>15.893547639986586</v>
       </c>
       <c r="AP2">
-        <v>8.8500924372382332</v>
+        <v>8.850092427993129</v>
       </c>
       <c r="AQ2">
-        <v>10.457440184724598</v>
+        <v>10.457440156659771</v>
       </c>
       <c r="AR2">
-        <v>10.223115918749096</v>
+        <v>10.223115914473441</v>
       </c>
       <c r="AS2">
-        <v>13.296354830126253</v>
+        <v>13.29635480928496</v>
       </c>
       <c r="AT2">
-        <v>13.570216119728734</v>
+        <v>13.570216104429663</v>
       </c>
       <c r="AU2">
-        <v>9.1786745831549617</v>
+        <v>9.1786745740603237</v>
       </c>
       <c r="AV2">
-        <v>8.97811255608684</v>
+        <v>8.9781125261350017</v>
       </c>
       <c r="AW2">
-        <v>12.007775328060493</v>
+        <v>12.007775305707137</v>
       </c>
       <c r="AX2">
-        <v>17.821769310066053</v>
+        <v>17.821769277990583</v>
       </c>
       <c r="AY2">
-        <v>13.019043838411012</v>
+        <v>13.019043820573792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.5927542795580854</v>
+      </c>
+      <c r="C3">
+        <v>12.677314120467642</v>
+      </c>
+      <c r="D3">
+        <v>14.416415654732354</v>
+      </c>
+      <c r="E3">
+        <v>19.244438272862951</v>
+      </c>
+      <c r="F3">
+        <v>2.3665549056821011</v>
+      </c>
+      <c r="G3">
+        <v>11.090338481249583</v>
+      </c>
+      <c r="H3">
+        <v>10.232664694260743</v>
+      </c>
+      <c r="I3">
+        <v>8.3200441517688457</v>
+      </c>
+      <c r="J3">
+        <v>12.733530431007251</v>
+      </c>
+      <c r="K3">
+        <v>0.25312660238680801</v>
+      </c>
+      <c r="L3">
+        <v>12.346698351922878</v>
+      </c>
+      <c r="M3">
+        <v>9.3507083061536012</v>
+      </c>
+      <c r="N3">
         <v>-6.5387522358148971</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.6333683627870021</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>27.492396998317435</v>
+      </c>
+      <c r="Q3">
+        <v>7.5527170081494681</v>
+      </c>
+      <c r="R3">
+        <v>7.34948576015063</v>
+      </c>
+      <c r="S3">
+        <v>4.9189300554693913</v>
+      </c>
+      <c r="T3">
+        <v>6.6482244803329609</v>
+      </c>
+      <c r="U3">
+        <v>12.294347611744698</v>
+      </c>
+      <c r="V3">
+        <v>12.452724604666997</v>
+      </c>
+      <c r="W3">
+        <v>7.6761311878902383</v>
+      </c>
+      <c r="X3">
+        <v>4.5991612634893499</v>
+      </c>
+      <c r="Y3">
+        <v>5.8358074360591354</v>
+      </c>
+      <c r="Z3">
+        <v>10.386311170622106</v>
+      </c>
+      <c r="AA3">
+        <v>12.788589751703375</v>
+      </c>
+      <c r="AB3">
+        <v>9.6028548304771952</v>
+      </c>
+      <c r="AC3">
+        <v>15.872826032103502</v>
+      </c>
+      <c r="AD3">
+        <v>20.487975351568895</v>
+      </c>
+      <c r="AE3">
+        <v>14.386318672758744</v>
+      </c>
+      <c r="AF3">
+        <v>13.316633695531019</v>
+      </c>
+      <c r="AG3">
+        <v>9.8086424038569202</v>
+      </c>
+      <c r="AH3">
+        <v>9.9519783868154015</v>
+      </c>
+      <c r="AI3">
+        <v>13.26039168038918</v>
+      </c>
+      <c r="AJ3">
+        <v>15.801102020728589</v>
+      </c>
+      <c r="AK3">
+        <v>12.334555722121403</v>
+      </c>
+      <c r="AL3">
+        <v>12.902268653660817</v>
+      </c>
+      <c r="AM3">
         <v>14.71577472434616</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.02036264270017</v>
       </c>
-      <c r="F3">
-        <v>2.366554916914287</v>
-      </c>
-      <c r="G3">
-        <v>11.090338487405717</v>
-      </c>
-      <c r="H3">
-        <v>10.232664714213355</v>
-      </c>
-      <c r="I3">
-        <v>8.320044160580613</v>
-      </c>
-      <c r="J3">
-        <v>12.73353044257712</v>
-      </c>
-      <c r="K3">
-        <v>0.25312661386488799</v>
-      </c>
-      <c r="L3">
-        <v>12.34669836406413</v>
-      </c>
-      <c r="M3">
-        <v>9.3507418509111719</v>
-      </c>
-      <c r="N3">
-        <v>-6.538752220398071</v>
-      </c>
-      <c r="O3">
-        <v>4.6333683740523721</v>
-      </c>
-      <c r="P3">
-        <v>27.492397015208553</v>
-      </c>
-      <c r="Q3">
-        <v>7.5527170189230093</v>
-      </c>
-      <c r="R3">
-        <v>7.3494857727743117</v>
-      </c>
-      <c r="S3">
-        <v>4.9189300623931986</v>
-      </c>
-      <c r="T3">
-        <v>6.6482244919036289</v>
-      </c>
-      <c r="U3">
-        <v>12.294347618901327</v>
-      </c>
-      <c r="V3">
-        <v>12.452724611795031</v>
-      </c>
-      <c r="W3">
-        <v>7.6761312214541491</v>
-      </c>
-      <c r="X3">
-        <v>4.5991612830744257</v>
-      </c>
-      <c r="Y3">
-        <v>5.8358074481643323</v>
-      </c>
-      <c r="Z3">
-        <v>10.386311180190207</v>
-      </c>
-      <c r="AA3">
-        <v>12.788589767581868</v>
-      </c>
-      <c r="AB3">
-        <v>9.6028548476449487</v>
-      </c>
-      <c r="AC3">
-        <v>15.872826056392519</v>
-      </c>
-      <c r="AD3">
-        <v>20.487975383186459</v>
-      </c>
-      <c r="AE3">
-        <v>14.386318672088791</v>
-      </c>
-      <c r="AF3">
-        <v>13.316633716061443</v>
-      </c>
-      <c r="AG3">
-        <v>9.8086424267088574</v>
-      </c>
-      <c r="AH3">
-        <v>9.9519783952004897</v>
-      </c>
-      <c r="AI3">
-        <v>13.260391700121549</v>
-      </c>
-      <c r="AJ3">
-        <v>15.801102044515266</v>
-      </c>
-      <c r="AK3">
-        <v>12.334555729380172</v>
-      </c>
-      <c r="AL3">
-        <v>12.90226866874028</v>
-      </c>
-      <c r="AM3">
-        <v>14.715774753925512</v>
-      </c>
-      <c r="AN3">
-        <v>7.0203626634045824</v>
-      </c>
       <c r="AO3">
-        <v>7.5789270696085458</v>
+        <v>7.5789270348513131</v>
       </c>
       <c r="AP3">
-        <v>11.916192232953989</v>
+        <v>11.916192215243745</v>
       </c>
       <c r="AQ3">
-        <v>11.396259389042449</v>
+        <v>11.396259373873145</v>
       </c>
       <c r="AR3">
-        <v>12.271987777188505</v>
+        <v>12.271987765640297</v>
       </c>
       <c r="AS3">
-        <v>10.412917692356768</v>
+        <v>10.412917678090917</v>
       </c>
       <c r="AT3">
-        <v>10.523935870565285</v>
+        <v>10.523935845309474</v>
       </c>
       <c r="AU3">
-        <v>13.550011912643589</v>
+        <v>13.550011887823466</v>
       </c>
       <c r="AV3">
-        <v>12.398159911359327</v>
+        <v>12.398159895144166</v>
       </c>
       <c r="AW3">
-        <v>14.32287941937985</v>
+        <v>14.32287938946318</v>
       </c>
       <c r="AX3">
-        <v>29.700789234813797</v>
+        <v>29.700789212430294</v>
       </c>
       <c r="AY3">
-        <v>19.802915854741059</v>
+        <v>19.802915841514956</v>
       </c>
     </row>
   </sheetData>
